--- a/data/model/nBerkovich_linear.xlsx
+++ b/data/model/nBerkovich_linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\GitHub\NN_TiAlTa\data\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/GitHub/NN_TiAlTa/data/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FECFFDC-0BA8-447E-AF60-2F0A0080B051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C78DC-5733-5B49-BBBF-6CC0774A482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="13620" xr2:uid="{22A46240-1FAA-4683-91B8-CDEDEB32A322}"/>
+    <workbookView xWindow="14480" yWindow="1020" windowWidth="20860" windowHeight="13620" xr2:uid="{22A46240-1FAA-4683-91B8-CDEDEB32A322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,13 +402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1830E8A8-A2DA-40CF-AFFA-FCF2BEB6AEEF}">
   <dimension ref="A1:DT160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
-      <selection activeCell="DO5" sqref="DO5"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DQ3" sqref="DQ3:DR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.22600000000000001</v>
       </c>
@@ -650,611 +660,611 @@
         <v>0.24829899999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A2">
         <f>0.001*B107/A107^2</f>
         <v>230.09676363090057</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <f>(B109-B110)/(A109-A110)</f>
         <v>194322.91666666634</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <f>C158/C107</f>
         <v>0.53361405738953105</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <f>0.001*G107/F107^2</f>
         <v>232.33349864947763</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <f>(G109-G110)/(F109-F110)</f>
         <v>235933.14763231133</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <f>H158/H107</f>
         <v>0.53442875841436055</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <f>0.001*L107/K107^2</f>
         <v>233.26196287338465</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <f>(L109-L110)/(K109-K110)</f>
         <v>250402.14477211723</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <f>M158/M107</f>
         <v>0.53590016866198276</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <f>0.001*Q107/P107^2</f>
         <v>233.71390995586762</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <f>(Q109-Q110)/(P109-P110)</f>
         <v>242523.36448598097</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <f>R158/R107</f>
         <v>0.53776674025018389</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <f>0.001*V107/U107^2</f>
         <v>231.17873649133125</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <f>(V109-V110)/(U109-U110)</f>
         <v>221197.41100323558</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <f>W158/W107</f>
         <v>0.5331688307780269</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <f>0.001*AA107/Z107^2</f>
         <v>232.65333878950986</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2">
         <f>(AA109-AA110)/(Z109-Z110)</f>
         <v>230259.25925925851</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2">
         <f>AB158/AB107</f>
         <v>0.52930102005887592</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <f>0.001*AF107/AE107^2</f>
         <v>233.82183005885534</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2">
         <f>(AF109-AF110)/(AE109-AE110)</f>
         <v>208697.31800766266</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <f>AG158/AG107</f>
         <v>0.5242481978354383</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <f>0.001*AK107/AJ107^2</f>
         <v>233.33633730999136</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <f>(AK109-AK110)/(AJ109-AJ110)</f>
         <v>155239.61661341871</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <f>AL158/AL107</f>
         <v>0.51997176170522863</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <f>0.001*AP107/AO107^2</f>
         <v>233.9148173559781</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2">
         <f>(AP109-AP110)/(AO109-AO110)</f>
         <v>147412.58741258745</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <f>AQ158/AQ107</f>
         <v>0.51657127645414624</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <f>0.001*AU107/AT107^2</f>
         <v>235.27034191800129</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2">
         <f>(AU109-AU110)/(AT109-AT110)</f>
         <v>141691.72932330836</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2">
         <f>AV158/AV107</f>
         <v>0.51303611206977695</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <f>0.001*AZ107/AY107^2</f>
         <v>235.8152666368394</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <f>(AZ109-AZ110)/(AY109-AY110)</f>
         <v>129442.23107569787</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2">
         <f>BA158/BA107</f>
         <v>0.50966417910447759</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2">
         <f>0.001*BE107/BD107^2</f>
         <v>237.74065938839735</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2">
         <f>(BE109-BE110)/(BD109-BD110)</f>
         <v>117341.77215189835</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <f>BF158/BF107</f>
         <v>0.50584703615753401</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2">
         <f>0.001*BJ107/BI107^2</f>
         <v>240.72348876348923</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2">
         <f>(BJ109-BJ110)/(BI109-BI110)</f>
         <v>111500.00000000041</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2">
         <f>BK158/BK107</f>
         <v>0.50149367640645448</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BN2">
         <f>0.001*BO107/BN107^2</f>
         <v>239.29929562410413</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BO2">
         <f>(BO109-BO110)/(BN109-BN110)</f>
         <v>114323.14410480404</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BP2">
         <f>BP158/BP107</f>
         <v>0.50367556366865662</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BS2">
         <f>0.001*BT107/BS107^2</f>
         <v>247.65869535614291</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BT2">
         <f>(BT109-BT110)/(BS109-BS110)</f>
         <v>92727.272727272255</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BU2">
         <f>BU158/BU107</f>
         <v>0.4915521456875474</v>
       </c>
-      <c r="BX2" s="2">
+      <c r="BX2">
         <f>0.001*BY107/BX107^2</f>
         <v>243.8293088917502</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="BY2">
         <f>(BY109-BY110)/(BX109-BX110)</f>
         <v>101617.64705882339</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="BZ2">
         <f>BZ158/BZ107</f>
         <v>0.49669199220063209</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CC2">
         <f>0.001*CD107/CC107^2</f>
         <v>245.73394488411711</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="CD2">
         <f>(CD109-CD110)/(CC109-CC110)</f>
         <v>98826.530612245566</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="CE2">
         <f>CE158/CE107</f>
         <v>0.49414769739313341</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CH2">
         <f>0.001*CI107/CH107^2</f>
         <v>242.09258376501171</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CI2">
         <f>(CI109-CI110)/(CH109-CH110)</f>
         <v>106415.09433962275</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CJ2">
         <f>CJ158/CJ107</f>
         <v>0.49922644588142867</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CM2">
         <f>0.001*CN107/CM107^2</f>
         <v>236.51142618966617</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="CN2">
         <f>(CN109-CN110)/(CM109-CM110)</f>
         <v>123729.50819672165</v>
       </c>
-      <c r="CO2" s="2">
+      <c r="CO2">
         <f>CO158/CO107</f>
         <v>0.50782047617102954</v>
       </c>
-      <c r="CR2" s="2">
+      <c r="CR2">
         <f>0.001*CS107/CR107^2</f>
         <v>235.57164205482354</v>
       </c>
-      <c r="CS2" s="2">
+      <c r="CS2">
         <f>(CS109-CS110)/(CR109-CR110)</f>
         <v>137859.92217898899</v>
       </c>
-      <c r="CT2" s="2">
+      <c r="CT2">
         <f>CT158/CT107</f>
         <v>0.51138072453861927</v>
       </c>
-      <c r="CW2" s="2">
+      <c r="CW2">
         <f>0.001*CX107/CW107^2</f>
         <v>234.5681277543456</v>
       </c>
-      <c r="CX2" s="2">
+      <c r="CX2">
         <f>(CX109-CX110)/(CW109-CW110)</f>
         <v>144306.5693430645</v>
       </c>
-      <c r="CY2" s="2">
+      <c r="CY2">
         <f>CY158/CY107</f>
         <v>0.51479546176275293</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="DB2">
         <f>0.001*DC107/DB107^2</f>
         <v>233.6993947623256</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="DC2">
         <f>(DC109-DC110)/(DB109-DB110)</f>
         <v>158175.43859649176</v>
       </c>
-      <c r="DD2" s="2">
+      <c r="DD2">
         <f>DD158/DD107</f>
         <v>0.51828983296843867</v>
       </c>
-      <c r="DG2" s="2">
+      <c r="DG2">
         <f>0.001*DH107/DG107^2</f>
         <v>233.86762935887063</v>
       </c>
-      <c r="DH2" s="2">
+      <c r="DH2">
         <f>(DH109-DH110)/(DG109-DG110)</f>
         <v>187717.391304349</v>
       </c>
-      <c r="DI2" s="2">
+      <c r="DI2">
         <f>DI158/DI107</f>
         <v>0.52193844138834311</v>
       </c>
-      <c r="DL2" s="2">
+      <c r="DL2">
         <f>0.001*DM107/DL107^2</f>
         <v>230.91940420788822</v>
       </c>
-      <c r="DM2" s="2">
+      <c r="DM2">
         <f>(DM109-DM110)/(DL109-DL110)</f>
         <v>150265.25198939009</v>
       </c>
-      <c r="DN2" s="2">
+      <c r="DN2">
         <f>DN158/DN107</f>
         <v>0.52713547583275311</v>
       </c>
-      <c r="DQ2" s="2">
+      <c r="DQ2">
         <f>0.001*DR107/DQ107^2</f>
         <v>229.7375593382543</v>
       </c>
-      <c r="DR2" s="2">
+      <c r="DR2">
         <f>(DR109-DR110)/(DQ109-DQ110)</f>
         <v>170317.46031745986</v>
       </c>
-      <c r="DS2" s="2">
+      <c r="DS2">
         <f>DS158/DS107</f>
         <v>0.53186195826645266</v>
       </c>
     </row>
-    <row r="3" spans="1:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A3">
         <f>MAX(A5:A159)</f>
         <v>0.21010000000000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <f>MAX(B5:B159)</f>
         <v>10186</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <f>MAX(C5:C159)</f>
         <v>757.78</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <f>MAX(F5:F159)</f>
         <v>0.21940000000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <f>MAX(G5:G159)</f>
         <v>11163</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <f>MAX(H5:H159)</f>
         <v>857.61</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <f>MAX(K5:K159)</f>
         <v>0.22885</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <f>MAX(L5:L159)</f>
         <v>12195</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <f>MAX(M5:M159)</f>
         <v>968.28</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <f>MAX(P5:P159)</f>
         <v>0.23830999999999999</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <f>MAX(Q5:Q159)</f>
         <v>13301</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <f>MAX(R5:R159)</f>
         <v>1089.2</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <f>MAX(U5:U159)</f>
         <v>0.20080999999999999</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <f>MAX(V5:V159)</f>
         <v>9295.6</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <f>MAX(W5:W159)</f>
         <v>668.88</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3">
         <f>MAX(Z5:Z159)</f>
         <v>0.19117999999999999</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3">
         <f>MAX(AA5:AA159)</f>
         <v>8456.7000000000007</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3">
         <f>MAX(AB5:AB159)</f>
         <v>586.91999999999996</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3">
         <f>MAX(AE5:AE159)</f>
         <v>0.18142</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3">
         <f>MAX(AF5:AF159)</f>
         <v>7660.1</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3">
         <f>MAX(AG5:AG159)</f>
         <v>509.88</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3">
         <f>MAX(AJ5:AJ159)</f>
         <v>0.17191000000000001</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3">
         <f>MAX(AK5:AK159)</f>
         <v>6900.8</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <f>MAX(AL5:AL159)</f>
         <v>439.2</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3">
         <f>MAX(AO5:AO159)</f>
         <v>0.16264000000000001</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3">
         <f>MAX(AP5:AP159)</f>
         <v>6188.1</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
         <f>MAX(AQ5:AQ159)</f>
         <v>375.65</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <f>MAX(AT5:AT159)</f>
         <v>0.15342</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3">
         <f>MAX(AU5:AU159)</f>
         <v>5537.2</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3">
         <f>MAX(AV5:AV159)</f>
         <v>318.73</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3">
         <f>MAX(AY5:AY159)</f>
         <v>0.14429</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3">
         <f>MAX(AZ5:AZ159)</f>
         <v>4909.3</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3">
         <f>MAX(BA5:BA159)</f>
         <v>268.02</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BD3">
         <f>MAX(BD5:BD159)</f>
         <v>0.13516</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3">
         <f>MAX(BE5:BE159)</f>
         <v>4343.3999999999996</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BF3">
         <f>MAX(BF5:BF159)</f>
         <v>223.19</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3">
         <f>MAX(BI5:BI159)</f>
         <v>0.12595999999999999</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3">
         <f>MAX(BJ5:BJ159)</f>
         <v>3819.5</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BK3">
         <f>MAX(BK5:BK159)</f>
         <v>183.45</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BN3">
         <f>MAX(BN5:BN159)</f>
         <v>0.13056999999999999</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BO3">
         <f>MAX(BO5:BO159)</f>
         <v>4079.9</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BP3">
         <f>MAX(BP5:BP159)</f>
         <v>202.7</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BS3">
         <f>MAX(BS5:BS159)</f>
         <v>0.10759000000000001</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BT3">
         <f>MAX(BT5:BT159)</f>
         <v>2867</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BU3">
         <f>MAX(BU5:BU159)</f>
         <v>118.62</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BX3">
         <f>MAX(BX5:BX159)</f>
         <v>0.11676</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="BY3">
         <f>MAX(BY5:BY159)</f>
         <v>3324.4</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="BZ3">
         <f>MAX(BZ5:BZ159)</f>
         <v>148.72999999999999</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="CC3">
         <f>MAX(CC5:CC159)</f>
         <v>0.11216</v>
       </c>
-      <c r="CD3" s="2">
+      <c r="CD3">
         <f>MAX(CD5:CD159)</f>
         <v>3091.4</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="CE3">
         <f>MAX(CE5:CE159)</f>
         <v>133.11000000000001</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CH3">
         <f>MAX(CH5:CH159)</f>
         <v>0.12137000000000001</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CI3">
         <f>MAX(CI5:CI159)</f>
         <v>3565.8</v>
       </c>
-      <c r="CJ3" s="2">
+      <c r="CJ3">
         <f>MAX(CJ5:CJ159)</f>
         <v>165.48</v>
       </c>
-      <c r="CM3" s="2">
+      <c r="CM3">
         <f>MAX(CM5:CM159)</f>
         <v>0.13972000000000001</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CN3">
         <f>MAX(CN5:CN159)</f>
         <v>4617.3999999999996</v>
       </c>
-      <c r="CO3" s="2">
+      <c r="CO3">
         <f>MAX(CO5:CO159)</f>
         <v>244.89</v>
       </c>
-      <c r="CR3" s="2">
+      <c r="CR3">
         <f>MAX(CR5:CR159)</f>
         <v>0.14885000000000001</v>
       </c>
-      <c r="CS3" s="2">
+      <c r="CS3">
         <f>MAX(CS5:CS159)</f>
         <v>5219.1000000000004</v>
       </c>
-      <c r="CT3" s="2">
+      <c r="CT3">
         <f>MAX(CT5:CT159)</f>
         <v>292.60000000000002</v>
       </c>
-      <c r="CW3" s="2">
+      <c r="CW3">
         <f>MAX(CW5:CW159)</f>
         <v>0.15801999999999999</v>
       </c>
-      <c r="CX3" s="2">
+      <c r="CX3">
         <f>MAX(CX5:CX159)</f>
         <v>5857.3</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="CY3">
         <f>MAX(CY5:CY159)</f>
         <v>346.41</v>
       </c>
-      <c r="DB3" s="2">
+      <c r="DB3">
         <f>MAX(DB5:DB159)</f>
         <v>0.16727</v>
       </c>
-      <c r="DC3" s="2">
+      <c r="DC3">
         <f>MAX(DC5:DC159)</f>
         <v>6533.5</v>
       </c>
-      <c r="DD3" s="2">
+      <c r="DD3">
         <f>MAX(DD5:DD159)</f>
         <v>406.57</v>
       </c>
-      <c r="DG3" s="2">
+      <c r="DG3">
         <f>MAX(DG5:DG159)</f>
         <v>0.17666000000000001</v>
       </c>
-      <c r="DH3" s="2">
+      <c r="DH3">
         <f>MAX(DH5:DH159)</f>
         <v>7279.8</v>
       </c>
-      <c r="DI3" s="2">
+      <c r="DI3">
         <f>MAX(DI5:DI159)</f>
         <v>473.69</v>
       </c>
-      <c r="DL3" s="2">
+      <c r="DL3">
         <f>MAX(DL5:DL159)</f>
         <v>0.18636</v>
       </c>
-      <c r="DM3" s="2">
+      <c r="DM3">
         <f>MAX(DM5:DM159)</f>
         <v>8046.1</v>
       </c>
-      <c r="DN3" s="2">
+      <c r="DN3">
         <f>MAX(DN5:DN159)</f>
         <v>547.44000000000005</v>
       </c>
-      <c r="DQ3" s="2">
+      <c r="DQ3">
         <f>MAX(DQ5:DQ159)</f>
         <v>0.19603000000000001</v>
       </c>
-      <c r="DR3" s="2">
+      <c r="DR3">
         <f>MAX(DR5:DR159)</f>
         <v>8873.9</v>
       </c>
-      <c r="DS3" s="2">
+      <c r="DS3">
         <f>MAX(DS5:DS159)</f>
         <v>626.72</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1858,7 +1868,7 @@
         <v>0.11409999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2160,7 +2170,7 @@
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2462,7 +2472,7 @@
         <v>0.34229999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>0.45639999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3066,7 +3076,7 @@
         <v>0.57050000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -3368,7 +3378,7 @@
         <v>0.68459999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>0.79869999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3972,7 +3982,7 @@
         <v>0.91279999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -4274,7 +4284,7 @@
         <v>1.0268999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="15" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>1.2551000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>1.3692</v>
       </c>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>1.4833000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -5784,7 +5794,7 @@
         <v>1.5973999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>1.7115</v>
       </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1.9876E-3</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>1.8255999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5.0562000000000003E-3</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>1.9397</v>
       </c>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8.2106000000000002E-3</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>2.0537999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1.1775000000000001E-2</v>
       </c>
@@ -7294,7 +7304,7 @@
         <v>2.1678999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1.4884E-2</v>
       </c>
@@ -7596,7 +7606,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1.7652000000000001E-2</v>
       </c>
@@ -7898,7 +7908,7 @@
         <v>2.3961000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2.0327999999999999E-2</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>2.5102000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2.2936000000000002E-2</v>
       </c>
@@ -8502,7 +8512,7 @@
         <v>2.6242999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2.5659000000000001E-2</v>
       </c>
@@ -8804,7 +8814,7 @@
         <v>2.7383999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2.8454E-2</v>
       </c>
@@ -9106,7 +9116,7 @@
         <v>2.8525</v>
       </c>
     </row>
-    <row r="30" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.0959E-2</v>
       </c>
@@ -9408,7 +9418,7 @@
         <v>2.9666000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.3436E-2</v>
       </c>
@@ -9710,7 +9720,7 @@
         <v>3.0807000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.5815E-2</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>3.1947999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.8203000000000001E-2</v>
       </c>
@@ -10314,7 +10324,7 @@
         <v>3.3089</v>
       </c>
     </row>
-    <row r="34" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4.0585000000000003E-2</v>
       </c>
@@ -10616,7 +10626,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="35" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4.2983E-2</v>
       </c>
@@ -10918,7 +10928,7 @@
         <v>3.5371000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4.5372000000000003E-2</v>
       </c>
@@ -11220,7 +11230,7 @@
         <v>3.6511999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4.7758000000000002E-2</v>
       </c>
@@ -11522,7 +11532,7 @@
         <v>3.7652999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4.9987999999999998E-2</v>
       </c>
@@ -11824,7 +11834,7 @@
         <v>3.8794</v>
       </c>
     </row>
-    <row r="39" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5.2220000000000003E-2</v>
       </c>
@@ -12126,7 +12136,7 @@
         <v>3.9935</v>
       </c>
     </row>
-    <row r="40" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>5.4540999999999999E-2</v>
       </c>
@@ -12428,7 +12438,7 @@
         <v>4.1075999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5.6864999999999999E-2</v>
       </c>
@@ -12730,7 +12740,7 @@
         <v>4.2217000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>5.9193000000000003E-2</v>
       </c>
@@ -13032,7 +13042,7 @@
         <v>4.3357999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>6.1561999999999999E-2</v>
       </c>
@@ -13334,7 +13344,7 @@
         <v>4.4499000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>6.3952999999999996E-2</v>
       </c>
@@ -13636,7 +13646,7 @@
         <v>4.5640000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>6.6349000000000005E-2</v>
       </c>
@@ -13938,7 +13948,7 @@
         <v>4.6780999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>6.8738999999999995E-2</v>
       </c>
@@ -14240,7 +14250,7 @@
         <v>4.7922000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>7.1135000000000004E-2</v>
       </c>
@@ -14542,7 +14552,7 @@
         <v>4.9062999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>7.3536000000000004E-2</v>
       </c>
@@ -14844,7 +14854,7 @@
         <v>5.0204000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>7.5905E-2</v>
       </c>
@@ -15146,7 +15156,7 @@
         <v>5.1345000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>7.8307000000000002E-2</v>
       </c>
@@ -15448,7 +15458,7 @@
         <v>5.2485999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>8.0709000000000003E-2</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>5.3627000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>8.3118999999999998E-2</v>
       </c>
@@ -16052,7 +16062,7 @@
         <v>5.4767999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>8.5531999999999997E-2</v>
       </c>
@@ -16354,7 +16364,7 @@
         <v>5.5909000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8.7943999999999994E-2</v>
       </c>
@@ -16656,7 +16666,7 @@
         <v>5.7050000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>9.0357999999999994E-2</v>
       </c>
@@ -16958,7 +16968,7 @@
         <v>5.8190999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>9.2771000000000006E-2</v>
       </c>
@@ -17260,7 +17270,7 @@
         <v>5.9332000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>9.5188999999999996E-2</v>
       </c>
@@ -17562,7 +17572,7 @@
         <v>6.0472999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>9.7520999999999997E-2</v>
       </c>
@@ -17864,7 +17874,7 @@
         <v>6.1614000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>9.9923999999999999E-2</v>
       </c>
@@ -18166,7 +18176,7 @@
         <v>6.2755000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.10233</v>
       </c>
@@ -18468,7 +18478,7 @@
         <v>6.3895999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.10473</v>
       </c>
@@ -18770,7 +18780,7 @@
         <v>6.5037000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.10715</v>
       </c>
@@ -19072,7 +19082,7 @@
         <v>6.6177999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.10956</v>
       </c>
@@ -19374,7 +19384,7 @@
         <v>6.7319000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.11196</v>
       </c>
@@ -19676,7 +19686,7 @@
         <v>6.8460000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.11437</v>
       </c>
@@ -19978,7 +19988,7 @@
         <v>6.9600999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.11679</v>
       </c>
@@ -20280,7 +20290,7 @@
         <v>7.0742000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.11921</v>
       </c>
@@ -20582,7 +20592,7 @@
         <v>7.1882999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.12163</v>
       </c>
@@ -20884,7 +20894,7 @@
         <v>7.3023999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.12404999999999999</v>
       </c>
@@ -21186,7 +21196,7 @@
         <v>7.4165000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.12647</v>
       </c>
@@ -21488,7 +21498,7 @@
         <v>7.5305999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.12889</v>
       </c>
@@ -21790,7 +21800,7 @@
         <v>7.6447000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.13131000000000001</v>
       </c>
@@ -22092,7 +22102,7 @@
         <v>7.7587999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.13372000000000001</v>
       </c>
@@ -22394,7 +22404,7 @@
         <v>7.8728999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.13614000000000001</v>
       </c>
@@ -22696,7 +22706,7 @@
         <v>7.9870000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.13852999999999999</v>
       </c>
@@ -22998,7 +23008,7 @@
         <v>8.1011000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.14094000000000001</v>
       </c>
@@ -23300,7 +23310,7 @@
         <v>8.2151999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.14335999999999999</v>
       </c>
@@ -23602,7 +23612,7 @@
         <v>8.3292999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.14574999999999999</v>
       </c>
@@ -23904,7 +23914,7 @@
         <v>8.4434000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.14815999999999999</v>
       </c>
@@ -24206,7 +24216,7 @@
         <v>8.5574999999999992</v>
       </c>
     </row>
-    <row r="80" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.15054000000000001</v>
       </c>
@@ -24508,7 +24518,7 @@
         <v>8.6715999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.15296999999999999</v>
       </c>
@@ -24810,7 +24820,7 @@
         <v>8.7857000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.15537000000000001</v>
       </c>
@@ -25112,7 +25122,7 @@
         <v>8.8998000000000008</v>
       </c>
     </row>
-    <row r="83" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.15781000000000001</v>
       </c>
@@ -25414,7 +25424,7 @@
         <v>9.0138999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.16019</v>
       </c>
@@ -25716,7 +25726,7 @@
         <v>9.1280000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.16264999999999999</v>
       </c>
@@ -26018,7 +26028,7 @@
         <v>9.2421000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.16500999999999999</v>
       </c>
@@ -26320,7 +26330,7 @@
         <v>9.3561999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.16750000000000001</v>
       </c>
@@ -26622,7 +26632,7 @@
         <v>9.4702999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.16982</v>
       </c>
@@ -26924,7 +26934,7 @@
         <v>9.5844000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.17237</v>
       </c>
@@ -27226,7 +27236,7 @@
         <v>9.6984999999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.17463000000000001</v>
       </c>
@@ -27528,7 +27538,7 @@
         <v>9.8125999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.17727999999999999</v>
       </c>
@@ -27830,7 +27840,7 @@
         <v>9.9267000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.17942</v>
       </c>
@@ -28132,7 +28142,7 @@
         <v>10.041</v>
       </c>
     </row>
-    <row r="93" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.18225</v>
       </c>
@@ -28434,7 +28444,7 @@
         <v>10.154999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.18414</v>
       </c>
@@ -28736,7 +28746,7 @@
         <v>10.269</v>
       </c>
     </row>
-    <row r="95" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.18726999999999999</v>
       </c>
@@ -29038,7 +29048,7 @@
         <v>10.382999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.18898999999999999</v>
       </c>
@@ -29340,7 +29350,7 @@
         <v>10.497</v>
       </c>
     </row>
-    <row r="97" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.19245000000000001</v>
       </c>
@@ -29642,7 +29652,7 @@
         <v>10.611000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.19399</v>
       </c>
@@ -29944,7 +29954,7 @@
         <v>10.725</v>
       </c>
     </row>
-    <row r="99" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.19763</v>
       </c>
@@ -30246,7 +30256,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="100" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.19908000000000001</v>
       </c>
@@ -30548,7 +30558,7 @@
         <v>10.954000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.20268</v>
       </c>
@@ -30850,7 +30860,7 @@
         <v>11.068</v>
       </c>
     </row>
-    <row r="102" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.20421</v>
       </c>
@@ -31152,7 +31162,7 @@
         <v>11.182</v>
       </c>
     </row>
-    <row r="103" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.20760000000000001</v>
       </c>
@@ -31454,7 +31464,7 @@
         <v>11.295999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.20931</v>
       </c>
@@ -31756,7 +31766,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="105" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.21010000000000001</v>
       </c>
@@ -32058,7 +32068,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="106" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.20956</v>
       </c>
@@ -32360,7 +32370,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="107" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.21007999999999999</v>
       </c>
@@ -32662,7 +32672,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="108" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.20971000000000001</v>
       </c>
@@ -32964,7 +32974,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="109" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.21002000000000001</v>
       </c>
@@ -33266,7 +33276,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="110" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.20618</v>
       </c>
@@ -33568,7 +33578,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="111" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.20271</v>
       </c>
@@ -33870,7 +33880,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.19899</v>
       </c>
@@ -34172,7 +34182,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.19544</v>
       </c>
@@ -34474,7 +34484,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="114" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.19178999999999999</v>
       </c>
@@ -34776,7 +34786,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="115" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.18817999999999999</v>
       </c>
@@ -35078,7 +35088,7 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="116" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.18454000000000001</v>
       </c>
@@ -35380,7 +35390,7 @@
         <v>17.809999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.18090999999999999</v>
       </c>
@@ -35682,7 +35692,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.17727000000000001</v>
       </c>
@@ -35984,7 +35994,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="119" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.17363999999999999</v>
       </c>
@@ -36286,7 +36296,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="120" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.17</v>
       </c>
@@ -36588,7 +36598,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="121" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.16636000000000001</v>
       </c>
@@ -36890,7 +36900,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.16270999999999999</v>
       </c>
@@ -37192,7 +37202,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.15908</v>
       </c>
@@ -37494,7 +37504,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="124" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.15564</v>
       </c>
@@ -37796,7 +37806,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="125" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.1522</v>
       </c>
@@ -38098,7 +38108,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="126" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.14868999999999999</v>
       </c>
@@ -38400,7 +38410,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.14516000000000001</v>
       </c>
@@ -38702,7 +38712,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.14172000000000001</v>
       </c>
@@ -39004,7 +39014,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="129" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.13872000000000001</v>
       </c>
@@ -39306,7 +39316,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="130" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.13622999999999999</v>
       </c>
@@ -39608,7 +39618,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="131" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.13503999999999999</v>
       </c>
@@ -39910,7 +39920,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="132" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.13492999999999999</v>
       </c>
@@ -40212,7 +40222,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="133" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.13492999999999999</v>
       </c>
@@ -40514,7 +40524,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="134" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.13492999999999999</v>
       </c>
@@ -40816,7 +40826,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="135" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.13492999999999999</v>
       </c>
@@ -41118,7 +41128,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="136" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.13492999999999999</v>
       </c>
@@ -41420,7 +41430,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="137" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.13492999999999999</v>
       </c>
@@ -41722,7 +41732,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="138" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.13492999999999999</v>
       </c>
@@ -42024,7 +42034,7 @@
         <v>22.21</v>
       </c>
     </row>
-    <row r="139" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.13492999999999999</v>
       </c>
@@ -42326,7 +42336,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="140" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.13492999999999999</v>
       </c>
@@ -42628,7 +42638,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="141" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.13492999999999999</v>
       </c>
@@ -42930,7 +42940,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="142" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.13492999999999999</v>
       </c>
@@ -43232,7 +43242,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="143" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.13492999999999999</v>
       </c>
@@ -43534,7 +43544,7 @@
         <v>23.21</v>
       </c>
     </row>
-    <row r="144" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.13492999999999999</v>
       </c>
@@ -43836,7 +43846,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="145" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.13492999999999999</v>
       </c>
@@ -44138,7 +44148,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="146" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.13492999999999999</v>
       </c>
@@ -44440,7 +44450,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="147" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.13492999999999999</v>
       </c>
@@ -44742,7 +44752,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="148" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.13492999999999999</v>
       </c>
@@ -45044,7 +45054,7 @@
         <v>24.21</v>
       </c>
     </row>
-    <row r="149" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.13492999999999999</v>
       </c>
@@ -45346,7 +45356,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="150" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.13492999999999999</v>
       </c>
@@ -45648,7 +45658,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="151" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.13492999999999999</v>
       </c>
@@ -45950,7 +45960,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="152" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.13492999999999999</v>
       </c>
@@ -46252,7 +46262,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="153" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.13492999999999999</v>
       </c>
@@ -46554,7 +46564,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="154" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.13492999999999999</v>
       </c>
@@ -46856,7 +46866,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="155" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.13492999999999999</v>
       </c>
@@ -47158,7 +47168,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="156" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.13492999999999999</v>
       </c>
@@ -47460,7 +47470,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="157" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.13492999999999999</v>
       </c>
@@ -47762,7 +47772,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="158" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.13492999999999999</v>
       </c>
@@ -48064,7 +48074,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="159" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.13492999999999999</v>
       </c>
@@ -48366,7 +48376,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="160" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:124" x14ac:dyDescent="0.2">
       <c r="BD160" s="1"/>
     </row>
   </sheetData>
